--- a/SE2223_57046_59748_60062_60437_64859/Phase 2/Sprint4/Burndown chart.xlsx
+++ b/SE2223_57046_59748_60062_60437_64859/Phase 2/Sprint4/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Desktop\Universidade\22_23\ES\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7233F-9ECA-4658-80B3-6707D1592427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30EB5E-53AA-428A-A2EE-C94C73CCC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1800" windowWidth="22245" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -669,6 +669,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,10 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,19 +875,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1006,40 +1006,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,40 +1128,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.4</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.8</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.2</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.6</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.4</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.8</c:v>
+                  <c:v>30.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.2</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.6</c:v>
+                  <c:v>22.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.399999999999999</c:v>
+                  <c:v>15.200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,44 +2347,44 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2425,8 +2425,8 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="21">
@@ -2482,28 +2482,38 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="27"/>
+      <c r="M6" s="7">
+        <v>4</v>
+      </c>
+      <c r="N6" s="27">
+        <v>3</v>
+      </c>
       <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="28"/>
       <c r="O7" s="35"/>
@@ -2553,10 +2563,10 @@
       <c r="O9" s="35"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -2582,23 +2592,23 @@
       </c>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
@@ -2606,33 +2616,33 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="15">
         <f>SUM(D6:D10)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" ref="E11:O11" si="1">D11-SUM(E6:E9)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="1"/>
@@ -2640,77 +2650,77 @@
       </c>
       <c r="K11" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L11" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N11" s="30">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O11" s="36">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="17">
         <f>D11</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="18">
         <f>$D$12-($D$12/15*1)</f>
-        <v>50.4</v>
+        <v>53.2</v>
       </c>
       <c r="F12" s="1">
         <f>$D$12-($D$12/15*2)</f>
-        <v>46.8</v>
+        <v>49.4</v>
       </c>
       <c r="G12" s="1">
         <f>$D$12-($D$12/15*3)</f>
-        <v>43.2</v>
+        <v>45.6</v>
       </c>
       <c r="H12" s="1">
         <f>$D$12-($D$12/15*4)</f>
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="I12" s="1">
         <f>$D$12-($D$12/15*5)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1">
         <f>$D$12-($D$12/15*6)</f>
-        <v>32.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K12" s="1">
         <f>$D$12-($D$12/15*7)</f>
-        <v>28.8</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="L12" s="1">
         <f>$D$12-($D$12/15*8)</f>
-        <v>25.2</v>
+        <v>26.6</v>
       </c>
       <c r="M12" s="1">
         <f>$D$12-($D$12/15*9)</f>
-        <v>21.6</v>
+        <v>22.800000000000004</v>
       </c>
       <c r="N12" s="31">
         <f>$D$12-($D$12/15*10)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O12" s="37">
         <f>$D$12-($D$12/15*11)</f>
-        <v>14.399999999999999</v>
+        <v>15.200000000000003</v>
       </c>
     </row>
   </sheetData>
